--- a/data/trans_dic/P13A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P13A_R-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,32</t>
+          <t>0,0; 0,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,95</t>
+          <t>0,7; 2,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,54</t>
+          <t>0,37; 1,57</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,56</t>
+          <t>1,19; 4,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,38</t>
+          <t>3,99; 7,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,47</t>
+          <t>2,98; 5,45</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,49</t>
+          <t>0,67; 3,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,11</t>
+          <t>3,21; 7,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,9</t>
+          <t>2,32; 4,68</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,78</t>
+          <t>0,19; 1,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 8,07</t>
+          <t>2,68; 8,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,98</t>
+          <t>1,73; 4,99</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,91</t>
+          <t>0,0; 4,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,86</t>
+          <t>1,11; 3,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,08</t>
+          <t>0,97; 3,19</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,43</t>
+          <t>1,19; 4,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,18; 7,51</t>
+          <t>3,25; 7,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,23</t>
+          <t>2,48; 5,03</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,54</t>
+          <t>0,57; 2,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,66</t>
+          <t>3,67; 7,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,1</t>
+          <t>2,78; 5,08</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 0,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,5</t>
+          <t>2,3; 7,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,54</t>
+          <t>1,2; 3,4</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,61</t>
+          <t>0,82; 1,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,76; 5,26</t>
+          <t>3,73; 5,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,42</t>
+          <t>2,51; 3,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P13A_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,29</t>
+          <t>0,0; 0,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,91</t>
+          <t>0,72; 2,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,57</t>
+          <t>0,39; 1,54</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,64</t>
+          <t>1,27; 4,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,52</t>
+          <t>3,94; 7,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,45</t>
+          <t>3,01; 5,47</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,57</t>
+          <t>0,69; 3,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 7,05</t>
+          <t>3,09; 7,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,68</t>
+          <t>2,41; 4,9</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,8</t>
+          <t>0,18; 1,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,46</t>
+          <t>2,48; 8,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,99</t>
+          <t>1,74; 4,98</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,3</t>
+          <t>0,0; 4,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,92</t>
+          <t>1,16; 3,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,19</t>
+          <t>0,89; 3,08</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,42</t>
+          <t>1,19; 4,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,4</t>
+          <t>3,18; 7,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,03</t>
+          <t>2,57; 5,23</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,7</t>
+          <t>0,56; 2,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,67; 7,75</t>
+          <t>3,35; 7,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,08</t>
+          <t>2,81; 5,1</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,7</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,3; 7,13</t>
+          <t>2,19; 6,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,4</t>
+          <t>1,16; 3,54</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,65</t>
+          <t>0,84; 1,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,25</t>
+          <t>3,76; 5,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,38</t>
+          <t>2,5; 3,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P13A_R-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,74%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,32</t>
+          <t>0,0; 0,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,95</t>
+          <t>0,71; 2,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,54</t>
+          <t>0,36; 1,42</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,56</t>
+          <t>1,24; 4,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,38</t>
+          <t>3,96; 7,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,47</t>
+          <t>2,97; 5,46</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,32%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,49</t>
+          <t>0,69; 3,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,11</t>
+          <t>3,09; 7,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,9</t>
+          <t>2,37; 4,83</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,44%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,78</t>
+          <t>0,18; 1,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 8,07</t>
+          <t>1,75; 6,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,98</t>
+          <t>1,4; 4,25</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,72%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,91</t>
+          <t>0,0; 4,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,86</t>
+          <t>1,18; 3,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,08</t>
+          <t>0,9; 3,07</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,43</t>
+          <t>1,15; 4,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,18; 7,51</t>
+          <t>3,14; 7,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,23</t>
+          <t>2,53; 5,16</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,49%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,54</t>
+          <t>0,54; 2,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,66</t>
+          <t>2,24; 7,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,1</t>
+          <t>2,08; 4,72</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 0,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,5</t>
+          <t>2,2; 6,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,54</t>
+          <t>0,86; 2,79</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,67%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,61</t>
+          <t>0,74; 1,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,76; 5,26</t>
+          <t>3,37; 4,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,42</t>
+          <t>2,22; 3,16</t>
         </is>
       </c>
     </row>
